--- a/Data/Industry 2017.xlsx
+++ b/Data/Industry 2017.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\FinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEF61F-9787-4FAA-9FF8-22123FCD44EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFDEB0B-6696-43BF-A5D0-34A18E245616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Women's earnings</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Men's earnings</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Number of women</t>
+  </si>
+  <si>
+    <t>Number of men</t>
   </si>
 </sst>
 </file>
@@ -476,7 +485,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -484,16 +493,25 @@
     <col min="1" max="1" width="53.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -506,6 +524,12 @@
       <c r="C2" s="3">
         <v>640</v>
       </c>
+      <c r="D2">
+        <v>247</v>
+      </c>
+      <c r="E2">
+        <v>988</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -517,6 +541,12 @@
       <c r="C3" s="3">
         <v>841</v>
       </c>
+      <c r="D3">
+        <v>639</v>
+      </c>
+      <c r="E3">
+        <v>6980</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -528,6 +558,12 @@
       <c r="C4" s="3">
         <v>1080</v>
       </c>
+      <c r="D4">
+        <v>19183</v>
+      </c>
+      <c r="E4">
+        <v>6869</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -539,6 +575,12 @@
       <c r="C5" s="3">
         <v>1236</v>
       </c>
+      <c r="D5">
+        <v>4540</v>
+      </c>
+      <c r="E5">
+        <v>3898</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -550,6 +592,12 @@
       <c r="C6" s="3">
         <v>1302</v>
       </c>
+      <c r="D6">
+        <v>839</v>
+      </c>
+      <c r="E6">
+        <v>1465</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -561,6 +609,12 @@
       <c r="C7" s="3">
         <v>596</v>
       </c>
+      <c r="D7">
+        <v>3575</v>
+      </c>
+      <c r="E7">
+        <v>4216</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -572,6 +626,12 @@
       <c r="C8" s="3">
         <v>954</v>
       </c>
+      <c r="D8">
+        <v>3931</v>
+      </c>
+      <c r="E8">
+        <v>10128</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -584,6 +644,12 @@
       <c r="C9" s="3">
         <v>1272</v>
       </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>632</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -595,6 +661,12 @@
       <c r="C10" s="3">
         <v>782</v>
       </c>
+      <c r="D10">
+        <v>1948</v>
+      </c>
+      <c r="E10">
+        <v>2421</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -606,6 +678,12 @@
       <c r="C11" s="3">
         <v>1186</v>
       </c>
+      <c r="D11">
+        <v>5408</v>
+      </c>
+      <c r="E11">
+        <v>7954</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -617,6 +695,12 @@
       <c r="C12" s="3">
         <v>1160</v>
       </c>
+      <c r="D12">
+        <v>2877</v>
+      </c>
+      <c r="E12">
+        <v>3748</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -628,38 +712,62 @@
       <c r="C13" s="3">
         <v>731</v>
       </c>
+      <c r="D13">
+        <v>4645</v>
+      </c>
+      <c r="E13">
+        <v>6264</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>770</v>
+        <v>733</v>
       </c>
       <c r="C14" s="3">
-        <v>941</v>
+        <v>957</v>
+      </c>
+      <c r="D14">
+        <v>1497</v>
+      </c>
+      <c r="E14">
+        <v>5211</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>733</v>
+        <v>790</v>
       </c>
       <c r="C15" s="3">
-        <v>957</v>
+        <v>956</v>
+      </c>
+      <c r="D15">
+        <v>874</v>
+      </c>
+      <c r="E15">
+        <v>2205</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="C16" s="3">
-        <v>956</v>
+        <v>941</v>
+      </c>
+      <c r="D16">
+        <v>50291</v>
+      </c>
+      <c r="E16">
+        <v>62980</v>
       </c>
     </row>
   </sheetData>
